--- a/Datas.xlsx
+++ b/Datas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\Desktop\ENRK\1_Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\OneDrive\Desktop\ENRK\1_Report\ENRK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A198E5B3-0D65-4522-BF8C-50EEF8DE6673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE8172-34D7-4BD5-BB4F-3F2F2209BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1E3AA4-099B-48CE-8ABA-BCEB49A21F5E}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{FC1E3AA4-099B-48CE-8ABA-BCEB49A21F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -397,245 +397,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280492F2-8CB6-4D3D-B156-0262003DC0BA}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>7.1782608695652179</v>
-      </c>
-      <c r="B1">
-        <v>573</v>
-      </c>
-      <c r="C1">
-        <v>128</v>
-      </c>
-      <c r="D1">
-        <v>258</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1.0414609087026356E-3</v>
-      </c>
-      <c r="F1" s="2">
-        <v>1.0414609087026356E-3</v>
-      </c>
-      <c r="G1" s="4">
-        <v>24.801111111111108</v>
-      </c>
-      <c r="H1">
-        <v>1.4781698519152358</v>
-      </c>
-    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>12.589565217391305</v>
+        <v>7.1782608695652179</v>
       </c>
       <c r="B2">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="C2">
+        <v>128</v>
+      </c>
+      <c r="D2">
         <v>258</v>
       </c>
-      <c r="D2">
-        <v>356</v>
-      </c>
       <c r="E2" s="2">
-        <v>1.4743339420010568E-3</v>
+        <v>1.0414609087026356E-3</v>
       </c>
       <c r="F2" s="2">
-        <v>2.5157948507036924E-3</v>
+        <v>1.0414609087026356E-3</v>
       </c>
       <c r="G2" s="4">
-        <v>14.73</v>
+        <v>24.801111111111108</v>
       </c>
       <c r="H2">
-        <v>1.3738059750717553</v>
+        <v>1.4781698519152358</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>15.736956521739131</v>
+        <v>12.589565217391305</v>
       </c>
       <c r="B3">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="C3">
+        <v>258</v>
+      </c>
+      <c r="D3">
         <v>356</v>
       </c>
-      <c r="D3">
-        <v>413</v>
-      </c>
       <c r="E3" s="2">
-        <v>1.0017305515620362E-3</v>
+        <v>1.4743339420010568E-3</v>
       </c>
       <c r="F3" s="2">
-        <v>3.5175254022657286E-3</v>
+        <v>2.5157948507036924E-3</v>
       </c>
       <c r="G3" s="4">
-        <v>26.193000000000001</v>
+        <v>14.73</v>
       </c>
       <c r="H3">
-        <v>1.1129645097665968</v>
+        <v>1.3738059750717553</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>18.111304347826088</v>
+        <v>15.736956521739131</v>
       </c>
       <c r="B4">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="C4">
+        <v>356</v>
+      </c>
+      <c r="D4">
         <v>413</v>
       </c>
-      <c r="D4">
-        <v>456</v>
-      </c>
       <c r="E4" s="2">
-        <v>7.1065090624421146E-4</v>
+        <v>1.0017305515620362E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>4.22817630850994E-3</v>
+        <v>3.5175254022657286E-3</v>
       </c>
       <c r="G4" s="4">
-        <v>41.381</v>
+        <v>26.193000000000001</v>
       </c>
       <c r="H4">
-        <v>0.90302516268620303</v>
+        <v>1.1129645097665968</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>20.099130434782609</v>
+        <v>18.111304347826088</v>
       </c>
       <c r="B5">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C5">
+        <v>413</v>
+      </c>
+      <c r="D5">
         <v>456</v>
       </c>
-      <c r="D5">
-        <v>492</v>
-      </c>
       <c r="E5" s="2">
-        <v>6.5599236538922516E-4</v>
+        <v>7.1065090624421146E-4</v>
       </c>
       <c r="F5" s="2">
-        <v>4.8841686738991651E-3</v>
+        <v>4.22817630850994E-3</v>
       </c>
       <c r="G5" s="4">
-        <v>45.79</v>
+        <v>41.381</v>
       </c>
       <c r="H5">
-        <v>1.7111984104714462</v>
+        <v>0.90302516268620303</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>24.571739130434786</v>
+        <v>20.099130434782609</v>
       </c>
       <c r="B6">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C6">
+        <v>456</v>
+      </c>
+      <c r="D6">
         <v>492</v>
       </c>
-      <c r="D6">
-        <v>573</v>
-      </c>
       <c r="E6" s="2">
-        <v>1.5432868581601144E-3</v>
+        <v>6.5599236538922516E-4</v>
       </c>
       <c r="F6" s="2">
-        <v>6.4274555320592798E-3</v>
+        <v>4.8841686738991651E-3</v>
       </c>
       <c r="G6" s="4">
-        <v>13.683333333333332</v>
+        <v>45.79</v>
       </c>
       <c r="H6">
-        <v>1.0393587766823671</v>
+        <v>1.7111984104714462</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>28.989130434782609</v>
+        <v>24.571739130434786</v>
       </c>
       <c r="B7">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="C7">
+        <v>492</v>
+      </c>
+      <c r="D7">
         <v>573</v>
       </c>
-      <c r="D7">
-        <v>653</v>
-      </c>
       <c r="E7" s="2">
-        <v>1.1655928262204725E-3</v>
+        <v>1.5432868581601144E-3</v>
       </c>
       <c r="F7" s="2">
-        <v>7.593048358279752E-3</v>
+        <v>6.4274555320592798E-3</v>
       </c>
       <c r="G7" s="4">
-        <v>21.09375</v>
+        <v>13.683333333333332</v>
       </c>
       <c r="H7">
-        <v>1.0649069375838836</v>
+        <v>1.0393587766823671</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>34.731739130434782</v>
+        <v>28.989130434782609</v>
       </c>
       <c r="B8">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="C8">
+        <v>573</v>
+      </c>
+      <c r="D8">
         <v>653</v>
       </c>
-      <c r="D8">
-        <v>757</v>
-      </c>
       <c r="E8" s="2">
-        <v>9.0749529512514288E-4</v>
+        <v>1.1655928262204725E-3</v>
       </c>
       <c r="F8" s="2">
-        <v>8.5005436534048955E-3</v>
+        <v>7.593048358279752E-3</v>
       </c>
       <c r="G8" s="4">
-        <v>30.006250000000001</v>
+        <v>21.09375</v>
       </c>
       <c r="H8">
-        <v>1.821780428199685</v>
+        <v>1.0649069375838836</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>34.731739130434782</v>
+      </c>
+      <c r="B9">
+        <v>410</v>
+      </c>
+      <c r="C9">
+        <v>653</v>
+      </c>
+      <c r="D9">
+        <v>757</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.0749529512514288E-4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8.5005436534048955E-3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>30.006250000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.821780428199685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>38.1</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>389</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>757</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>818</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>1.6429645344373406E-4</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>8.6648401068486289E-3</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="4">
         <v>220.75</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>16.875595227597582</v>
       </c>
     </row>
